--- a/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.1_KS_Holdout_seed_42/metrics/Trial_99__Reeval_Halton_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.1_KS_Holdout_seed_42/metrics/Trial_99__Reeval_Halton_Modell_1.1.xlsx
@@ -5990,37 +5990,37 @@
                   <c:v>53.34377670288086</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39.09607696533203</c:v>
+                  <c:v>39.09607315063477</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.293677449226379</c:v>
+                  <c:v>1.293678641319275</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49.09457015991211</c:v>
+                  <c:v>49.09457397460938</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>43.61126708984375</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31.43167877197266</c:v>
+                  <c:v>31.43168067932129</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.293677449226379</c:v>
+                  <c:v>1.293678641319275</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1.613113045692444</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.293677449226379</c:v>
+                  <c:v>1.293678641319275</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.171900510787964</c:v>
+                  <c:v>2.171903133392334</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>55.16644287109375</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.324904441833496</c:v>
+                  <c:v>1.324899554252625</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>-0.3400489091873169</c:v>
@@ -6041,10 +6041,10 @@
                   <c:v>43.68325042724609</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.293677449226379</c:v>
+                  <c:v>1.293678641319275</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.293677449226379</c:v>
+                  <c:v>1.293678641319275</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>50.5372314453125</c:v>
@@ -6056,19 +6056,19 @@
                   <c:v>55.81464004516602</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.293677449226379</c:v>
+                  <c:v>1.293678641319275</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>3.290047883987427</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.293677449226379</c:v>
+                  <c:v>1.293678641319275</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>47.13639068603516</c:v>
+                  <c:v>47.13639450073242</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>25.64688873291016</c:v>
+                  <c:v>25.64688491821289</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>8.144448280334473</c:v>
@@ -6077,61 +6077,61 @@
                   <c:v>-4.824619293212891</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.425800323486328</c:v>
+                  <c:v>1.425799012184143</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>48.2207145690918</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-0.4762899875640869</c:v>
+                  <c:v>-0.4762875139713287</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.311673045158386</c:v>
+                  <c:v>1.311674237251282</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>1.636799693107605</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.496412038803101</c:v>
+                  <c:v>2.496413230895996</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0.4794922471046448</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.293677449226379</c:v>
+                  <c:v>1.293678641319275</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.1314303129911423</c:v>
+                  <c:v>0.131435215473175</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>50.5552978515625</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>9.605038642883301</c:v>
+                  <c:v>9.605034828186035</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>21.40182495117188</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.3488870561122894</c:v>
+                  <c:v>0.3488882780075073</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>13.61578941345215</c:v>
+                  <c:v>13.61578845977783</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4.454604625701904</c:v>
+                  <c:v>4.45460319519043</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>54.42133712768555</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.293677449226379</c:v>
+                  <c:v>1.293678641319275</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>46.85446166992188</c:v>
+                  <c:v>46.85446929931641</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>14.08302021026611</c:v>
+                  <c:v>14.08301734924316</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>59.71041107177734</c:v>
@@ -6140,7 +6140,7 @@
                   <c:v>35.94449615478516</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>28.82811737060547</c:v>
+                  <c:v>28.82812118530273</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>41.25228118896484</c:v>
@@ -6149,10 +6149,10 @@
                   <c:v>1.654029011726379</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>56.04211044311523</c:v>
+                  <c:v>56.0421142578125</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.398554086685181</c:v>
+                  <c:v>2.398552656173706</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>48.30865478515625</c:v>
@@ -6164,25 +6164,25 @@
                   <c:v>-5.72919225692749</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>28.55112648010254</c:v>
+                  <c:v>28.55112457275391</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>0.9035637378692627</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.518783807754517</c:v>
+                  <c:v>1.518781304359436</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>-1.774088144302368</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>34.4378547668457</c:v>
+                  <c:v>34.43785858154297</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>46.82362747192383</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.293677449226379</c:v>
+                  <c:v>1.293678641319275</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>12.1169261932373</c:v>
@@ -6191,34 +6191,34 @@
                   <c:v>54.13429641723633</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>50.35922241210938</c:v>
+                  <c:v>50.35922622680664</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>17.90609550476074</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>7.002328872680664</c:v>
+                  <c:v>7.002330303192139</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>12.13083457946777</c:v>
+                  <c:v>12.13083553314209</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>6.700607776641846</c:v>
+                  <c:v>6.70060920715332</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>59.26282119750977</c:v>
+                  <c:v>59.26282501220703</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>41.48422241210938</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.293677449226379</c:v>
+                  <c:v>1.293678641319275</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>10.96865463256836</c:v>
+                  <c:v>10.96865367889404</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>49.277587890625</c:v>
+                  <c:v>49.27759170532227</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>26.83519744873047</c:v>
@@ -6236,10 +6236,10 @@
                   <c:v>0.8757759928703308</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>44.40819931030273</c:v>
+                  <c:v>44.408203125</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.293677449226379</c:v>
+                  <c:v>1.293678641319275</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>2.607243776321411</c:v>
@@ -6251,7 +6251,7 @@
                   <c:v>51.84918594360352</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2.030573606491089</c:v>
+                  <c:v>2.030576229095459</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>0.5111428499221802</c:v>
@@ -6260,16 +6260,16 @@
                   <c:v>32.68143463134766</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.293677449226379</c:v>
+                  <c:v>1.293678641319275</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>57.81230545043945</c:v>
+                  <c:v>57.81231307983398</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.005306839942932</c:v>
+                  <c:v>1.005304336547852</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.8949036002159119</c:v>
+                  <c:v>0.8949024081230164</c:v>
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>47.60774612426758</c:v>
@@ -7011,7 +7011,7 @@
         <v>29.3754</v>
       </c>
       <c r="F3">
-        <v>39.09607696533203</v>
+        <v>39.09607315063477</v>
       </c>
       <c r="G3">
         <v>83</v>
@@ -7043,7 +7043,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.293677449226379</v>
+        <v>1.293678641319275</v>
       </c>
       <c r="G4">
         <v>83</v>
@@ -7075,7 +7075,7 @@
         <v>42.1438</v>
       </c>
       <c r="F5">
-        <v>49.09457015991211</v>
+        <v>49.09457397460938</v>
       </c>
       <c r="G5">
         <v>83</v>
@@ -7139,7 +7139,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>31.43167877197266</v>
+        <v>31.43168067932129</v>
       </c>
       <c r="G7">
         <v>83</v>
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.293677449226379</v>
+        <v>1.293678641319275</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7211,7 +7211,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.293677449226379</v>
+        <v>1.293678641319275</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7231,7 +7231,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.171900510787964</v>
+        <v>2.171903133392334</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7271,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.324904441833496</v>
+        <v>1.324899554252625</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7411,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.293677449226379</v>
+        <v>1.293678641319275</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.293677449226379</v>
+        <v>1.293678641319275</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.293677449226379</v>
+        <v>1.293678641319275</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.293677449226379</v>
+        <v>1.293678641319275</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>47.2576</v>
       </c>
       <c r="F28">
-        <v>47.13639068603516</v>
+        <v>47.13639450073242</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>53.1601</v>
       </c>
       <c r="F29">
-        <v>25.64688873291016</v>
+        <v>25.64688491821289</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.425800323486328</v>
+        <v>1.425799012184143</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>-0.4762899875640869</v>
+        <v>-0.4762875139713287</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.311673045158386</v>
+        <v>1.311674237251282</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>2.496412038803101</v>
+        <v>2.496413230895996</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.293677449226379</v>
+        <v>1.293678641319275</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>0.1314303129911423</v>
+        <v>0.131435215473175</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>33.8124</v>
       </c>
       <c r="F42">
-        <v>9.605038642883301</v>
+        <v>9.605034828186035</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>0.3488870561122894</v>
+        <v>0.3488882780075073</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>13.61578941345215</v>
+        <v>13.61578845977783</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>4.454604625701904</v>
+        <v>4.45460319519043</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.293677449226379</v>
+        <v>1.293678641319275</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>46.85446166992188</v>
+        <v>46.85446929931641</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>14.08302021026611</v>
+        <v>14.08301734924316</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>45.5896</v>
       </c>
       <c r="F53">
-        <v>28.82811737060547</v>
+        <v>28.82812118530273</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>48.3275</v>
       </c>
       <c r="F56">
-        <v>56.04211044311523</v>
+        <v>56.0421142578125</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>2.398554086685181</v>
+        <v>2.398552656173706</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>46.8311</v>
       </c>
       <c r="F61">
-        <v>28.55112648010254</v>
+        <v>28.55112457275391</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.518783807754517</v>
+        <v>1.518781304359436</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>50.5748</v>
       </c>
       <c r="F65">
-        <v>34.4378547668457</v>
+        <v>34.43785858154297</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.293677449226379</v>
+        <v>1.293678641319275</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>46.1004</v>
       </c>
       <c r="F70">
-        <v>50.35922241210938</v>
+        <v>50.35922622680664</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>7.002328872680664</v>
+        <v>7.002330303192139</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8471,7 +8471,7 @@
         <v>48.0588</v>
       </c>
       <c r="F73">
-        <v>12.13083457946777</v>
+        <v>12.13083553314209</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>51.5206</v>
       </c>
       <c r="F74">
-        <v>6.700607776641846</v>
+        <v>6.70060920715332</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>30.9889</v>
       </c>
       <c r="F75">
-        <v>59.26282119750977</v>
+        <v>59.26282501220703</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.293677449226379</v>
+        <v>1.293678641319275</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>31.3181</v>
       </c>
       <c r="F78">
-        <v>10.96865463256836</v>
+        <v>10.96865367889404</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8591,7 +8591,7 @@
         <v>46.1463</v>
       </c>
       <c r="F79">
-        <v>49.277587890625</v>
+        <v>49.27759170532227</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>26.5272</v>
       </c>
       <c r="F85">
-        <v>44.40819931030273</v>
+        <v>44.408203125</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.293677449226379</v>
+        <v>1.293678641319275</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>2.030573606491089</v>
+        <v>2.030576229095459</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.293677449226379</v>
+        <v>1.293678641319275</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -8891,7 +8891,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>57.81230545043945</v>
+        <v>57.81231307983398</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -8911,7 +8911,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.005306839942932</v>
+        <v>1.005304336547852</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -8931,7 +8931,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>0.8949036002159119</v>
+        <v>0.8949024081230164</v>
       </c>
     </row>
     <row r="97" spans="1:6">
